--- a/Factors and Ridership Data/Model Estimation/Est10/FAC  10-2-RAIL.xlsx
+++ b/Factors and Ridership Data/Model Estimation/Est10/FAC  10-2-RAIL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rianajawad/Documents/GitHub/transit_ridership_decline/Factors and Ridership Data/Model Estimation/Est10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0BE784-C51D-A04B-BB6F-7758A1DD8A3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2313C9-21E2-7D45-9F07-FBD9767B7A11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25640" windowHeight="15840" tabRatio="818" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12220" windowHeight="15840" tabRatio="818" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary-Bus" sheetId="21" state="hidden" r:id="rId1"/>
@@ -2434,7 +2434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:U23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -22514,8 +22514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597C5C7C-FE49-1E4E-9392-166C2CBD0A88}">
   <dimension ref="A1:AE116"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107:XFD108"/>
+    <sheetView showGridLines="0" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99:E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -23011,7 +23011,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="56">
-        <v>0.81299999999999994</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="F13" s="8">
         <f>MATCH($D13,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -23127,7 +23127,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="56">
-        <v>-0.70179999999999998</v>
+        <v>-0.71730000000000005</v>
       </c>
       <c r="F14" s="8">
         <f>MATCH($D14,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -23243,7 +23243,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="56">
-        <v>0.26119999999999999</v>
+        <v>0.59470000000000001</v>
       </c>
       <c r="F15" s="8">
         <f>MATCH($D15,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -23357,7 +23357,7 @@
         <v>79</v>
       </c>
       <c r="E16" s="56">
-        <v>0.39179999999999998</v>
+        <v>-0.45679999999999998</v>
       </c>
       <c r="F16" s="8">
         <f>MATCH($D16,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -23473,7 +23473,7 @@
         <v>17</v>
       </c>
       <c r="E17" s="56">
-        <v>0.21890000000000001</v>
+        <v>0.1794</v>
       </c>
       <c r="F17" s="8">
         <f>MATCH($D17,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -23589,7 +23589,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="56">
-        <v>-0.3866</v>
+        <v>-0.7228</v>
       </c>
       <c r="F18" s="8">
         <f>MATCH($D18,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -23703,7 +23703,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="56">
-        <v>7.1000000000000004E-3</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="F19" s="8">
         <f>MATCH($D19,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -23817,7 +23817,7 @@
         <v>32</v>
       </c>
       <c r="E20" s="56">
-        <v>1E-4</v>
+        <v>1.04E-2</v>
       </c>
       <c r="F20" s="8">
         <f>MATCH($D20,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -23931,7 +23931,7 @@
         <v>89</v>
       </c>
       <c r="E21" s="56">
-        <v>-5.9999999999999995E-4</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F21" s="8">
         <f>MATCH($D21,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -24035,7 +24035,7 @@
       </c>
       <c r="AE21" s="8"/>
     </row>
-    <row r="22" spans="1:31" s="15" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="13" t="s">
         <v>83</v>
@@ -24045,7 +24045,7 @@
         <v>85</v>
       </c>
       <c r="E22" s="56">
-        <v>-4.2099999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F22" s="8">
         <f>MATCH($D22,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -24149,7 +24149,7 @@
       </c>
       <c r="AE22" s="8"/>
     </row>
-    <row r="23" spans="1:31" s="15" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="13" t="s">
         <v>83</v>
@@ -24159,7 +24159,7 @@
         <v>90</v>
       </c>
       <c r="E23" s="56">
-        <v>2.8E-3</v>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="F23" s="8">
         <f>MATCH($D23,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -24273,7 +24273,7 @@
         <v>49</v>
       </c>
       <c r="E24" s="56">
-        <v>-9.7000000000000003E-3</v>
+        <v>-9.4999999999999998E-3</v>
       </c>
       <c r="F24" s="8">
         <f>MATCH($D24,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -24387,7 +24387,7 @@
         <v>50</v>
       </c>
       <c r="E25" s="57">
-        <v>-4.1399999999999999E-2</v>
+        <v>-4.2500000000000003E-2</v>
       </c>
       <c r="F25" s="9">
         <f>MATCH($D25,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -25207,7 +25207,7 @@
         <v>8</v>
       </c>
       <c r="E41" s="56">
-        <v>0.81299999999999994</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="F41" s="8">
         <f>MATCH($D41,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -25323,7 +25323,7 @@
         <v>18</v>
       </c>
       <c r="E42" s="56">
-        <v>-0.70179999999999998</v>
+        <v>-0.71730000000000005</v>
       </c>
       <c r="F42" s="8">
         <f>MATCH($D42,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -25439,7 +25439,7 @@
         <v>9</v>
       </c>
       <c r="E43" s="56">
-        <v>0.26119999999999999</v>
+        <v>0.59470000000000001</v>
       </c>
       <c r="F43" s="8">
         <f>MATCH($D43,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -25553,7 +25553,7 @@
         <v>79</v>
       </c>
       <c r="E44" s="56">
-        <v>0.39179999999999998</v>
+        <v>-0.45679999999999998</v>
       </c>
       <c r="F44" s="8">
         <f>MATCH($D44,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -25669,7 +25669,7 @@
         <v>17</v>
       </c>
       <c r="E45" s="56">
-        <v>0.21890000000000001</v>
+        <v>0.1794</v>
       </c>
       <c r="F45" s="8">
         <f>MATCH($D45,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -25785,7 +25785,7 @@
         <v>16</v>
       </c>
       <c r="E46" s="56">
-        <v>-0.3866</v>
+        <v>-0.7228</v>
       </c>
       <c r="F46" s="8">
         <f>MATCH($D46,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -25899,7 +25899,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="56">
-        <v>7.1000000000000004E-3</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="F47" s="8">
         <f>MATCH($D47,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -26013,7 +26013,7 @@
         <v>32</v>
       </c>
       <c r="E48" s="56">
-        <v>1E-4</v>
+        <v>1.04E-2</v>
       </c>
       <c r="F48" s="8">
         <f>MATCH($D48,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -26127,7 +26127,7 @@
         <v>89</v>
       </c>
       <c r="E49" s="56">
-        <v>-5.9999999999999995E-4</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F49" s="8">
         <f>MATCH($D49,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -26241,7 +26241,7 @@
         <v>85</v>
       </c>
       <c r="E50" s="56">
-        <v>-4.2099999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F50" s="8">
         <f>MATCH($D50,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -26355,7 +26355,7 @@
         <v>90</v>
       </c>
       <c r="E51" s="56">
-        <v>2.8E-3</v>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="F51" s="8">
         <f>MATCH($D51,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -26469,7 +26469,7 @@
         <v>49</v>
       </c>
       <c r="E52" s="56">
-        <v>-9.7000000000000003E-3</v>
+        <v>-9.4999999999999998E-3</v>
       </c>
       <c r="F52" s="8">
         <f>MATCH($D52,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -26583,7 +26583,7 @@
         <v>50</v>
       </c>
       <c r="E53" s="57">
-        <v>-4.1399999999999999E-2</v>
+        <v>-4.2500000000000003E-2</v>
       </c>
       <c r="F53" s="9">
         <f>MATCH($D53,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -29721,7 +29721,7 @@
         <v>8</v>
       </c>
       <c r="E99" s="56">
-        <v>0.81299999999999994</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="F99" s="8">
         <f>MATCH($D99,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -29837,7 +29837,7 @@
         <v>18</v>
       </c>
       <c r="E100" s="56">
-        <v>-0.70179999999999998</v>
+        <v>-0.71730000000000005</v>
       </c>
       <c r="F100" s="8">
         <f>MATCH($D100,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -29953,7 +29953,7 @@
         <v>9</v>
       </c>
       <c r="E101" s="56">
-        <v>0.26119999999999999</v>
+        <v>0.59470000000000001</v>
       </c>
       <c r="F101" s="8">
         <f>MATCH($D101,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -30067,7 +30067,7 @@
         <v>79</v>
       </c>
       <c r="E102" s="56">
-        <v>0.39179999999999998</v>
+        <v>-0.45679999999999998</v>
       </c>
       <c r="F102" s="8">
         <f>MATCH($D102,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -30183,7 +30183,7 @@
         <v>17</v>
       </c>
       <c r="E103" s="56">
-        <v>0.21890000000000001</v>
+        <v>0.1794</v>
       </c>
       <c r="F103" s="8">
         <f>MATCH($D103,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -30299,7 +30299,7 @@
         <v>16</v>
       </c>
       <c r="E104" s="56">
-        <v>-0.3866</v>
+        <v>-0.7228</v>
       </c>
       <c r="F104" s="8">
         <f>MATCH($D104,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -30413,7 +30413,7 @@
         <v>10</v>
       </c>
       <c r="E105" s="56">
-        <v>7.1000000000000004E-3</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="F105" s="8">
         <f>MATCH($D105,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -30527,7 +30527,7 @@
         <v>32</v>
       </c>
       <c r="E106" s="56">
-        <v>1E-4</v>
+        <v>1.04E-2</v>
       </c>
       <c r="F106" s="8">
         <f>MATCH($D106,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -30641,7 +30641,7 @@
         <v>89</v>
       </c>
       <c r="E107" s="56">
-        <v>-5.9999999999999995E-4</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F107" s="8">
         <f>MATCH($D107,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -30755,7 +30755,7 @@
         <v>85</v>
       </c>
       <c r="E108" s="56">
-        <v>-4.2099999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F108" s="8">
         <f>MATCH($D108,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -30869,7 +30869,7 @@
         <v>90</v>
       </c>
       <c r="E109" s="56">
-        <v>2.8E-3</v>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="F109" s="8">
         <f>MATCH($D109,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -30983,7 +30983,7 @@
         <v>49</v>
       </c>
       <c r="E110" s="56">
-        <v>-9.7000000000000003E-3</v>
+        <v>-9.4999999999999998E-3</v>
       </c>
       <c r="F110" s="8">
         <f>MATCH($D110,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -31097,7 +31097,7 @@
         <v>50</v>
       </c>
       <c r="E111" s="57">
-        <v>-4.1399999999999999E-2</v>
+        <v>-4.2500000000000003E-2</v>
       </c>
       <c r="F111" s="9">
         <f>MATCH($D111,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -31511,8 +31511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FA447B-7C87-4641-9DD0-A2C9F6EE9FC6}">
   <dimension ref="A1:AE116"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="AD115" sqref="AD115"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -32008,7 +32008,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="56">
-        <v>0.81299999999999994</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="F13" s="8">
         <f>MATCH($D13,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -32124,7 +32124,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="56">
-        <v>-0.70179999999999998</v>
+        <v>-0.71730000000000005</v>
       </c>
       <c r="F14" s="8">
         <f>MATCH($D14,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -32240,7 +32240,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="56">
-        <v>0.26119999999999999</v>
+        <v>0.59470000000000001</v>
       </c>
       <c r="F15" s="8">
         <f>MATCH($D15,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -32354,7 +32354,7 @@
         <v>79</v>
       </c>
       <c r="E16" s="56">
-        <v>0.39179999999999998</v>
+        <v>-0.45679999999999998</v>
       </c>
       <c r="F16" s="8">
         <f>MATCH($D16,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -32470,7 +32470,7 @@
         <v>17</v>
       </c>
       <c r="E17" s="56">
-        <v>0.21890000000000001</v>
+        <v>0.1794</v>
       </c>
       <c r="F17" s="8">
         <f>MATCH($D17,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -32586,7 +32586,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="56">
-        <v>-0.3866</v>
+        <v>-0.7228</v>
       </c>
       <c r="F18" s="8">
         <f>MATCH($D18,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -32700,7 +32700,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="56">
-        <v>7.1000000000000004E-3</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="F19" s="8">
         <f>MATCH($D19,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -32814,7 +32814,7 @@
         <v>32</v>
       </c>
       <c r="E20" s="56">
-        <v>1E-4</v>
+        <v>1.04E-2</v>
       </c>
       <c r="F20" s="8">
         <f>MATCH($D20,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -32928,7 +32928,7 @@
         <v>89</v>
       </c>
       <c r="E21" s="56">
-        <v>-5.9999999999999995E-4</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F21" s="8">
         <f>MATCH($D21,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -33042,7 +33042,7 @@
         <v>85</v>
       </c>
       <c r="E22" s="56">
-        <v>-4.2099999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F22" s="8">
         <f>MATCH($D22,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -33156,7 +33156,7 @@
         <v>90</v>
       </c>
       <c r="E23" s="56">
-        <v>2.8E-3</v>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="F23" s="8">
         <f>MATCH($D23,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -33270,7 +33270,7 @@
         <v>49</v>
       </c>
       <c r="E24" s="56">
-        <v>-9.7000000000000003E-3</v>
+        <v>-9.4999999999999998E-3</v>
       </c>
       <c r="F24" s="8">
         <f>MATCH($D24,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -33384,7 +33384,7 @@
         <v>50</v>
       </c>
       <c r="E25" s="57">
-        <v>-4.1399999999999999E-2</v>
+        <v>-4.2500000000000003E-2</v>
       </c>
       <c r="F25" s="9">
         <f>MATCH($D25,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -34204,7 +34204,7 @@
         <v>8</v>
       </c>
       <c r="E41" s="56">
-        <v>0.81299999999999994</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="F41" s="8">
         <f>MATCH($D41,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -34320,7 +34320,7 @@
         <v>18</v>
       </c>
       <c r="E42" s="56">
-        <v>-0.70179999999999998</v>
+        <v>-0.71730000000000005</v>
       </c>
       <c r="F42" s="8">
         <f>MATCH($D42,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -34436,7 +34436,7 @@
         <v>9</v>
       </c>
       <c r="E43" s="56">
-        <v>0.26119999999999999</v>
+        <v>0.59470000000000001</v>
       </c>
       <c r="F43" s="8">
         <f>MATCH($D43,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -34550,7 +34550,7 @@
         <v>79</v>
       </c>
       <c r="E44" s="56">
-        <v>0.39179999999999998</v>
+        <v>-0.45679999999999998</v>
       </c>
       <c r="F44" s="8">
         <f>MATCH($D44,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -34666,7 +34666,7 @@
         <v>17</v>
       </c>
       <c r="E45" s="56">
-        <v>0.21890000000000001</v>
+        <v>0.1794</v>
       </c>
       <c r="F45" s="8">
         <f>MATCH($D45,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -34782,7 +34782,7 @@
         <v>16</v>
       </c>
       <c r="E46" s="56">
-        <v>-0.3866</v>
+        <v>-0.7228</v>
       </c>
       <c r="F46" s="8">
         <f>MATCH($D46,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -34896,7 +34896,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="56">
-        <v>7.1000000000000004E-3</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="F47" s="8">
         <f>MATCH($D47,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -35010,7 +35010,7 @@
         <v>32</v>
       </c>
       <c r="E48" s="56">
-        <v>1E-4</v>
+        <v>1.04E-2</v>
       </c>
       <c r="F48" s="8">
         <f>MATCH($D48,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -35124,7 +35124,7 @@
         <v>89</v>
       </c>
       <c r="E49" s="56">
-        <v>-5.9999999999999995E-4</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F49" s="8">
         <f>MATCH($D49,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -35238,7 +35238,7 @@
         <v>85</v>
       </c>
       <c r="E50" s="56">
-        <v>-4.2099999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F50" s="8">
         <f>MATCH($D50,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -35352,7 +35352,7 @@
         <v>90</v>
       </c>
       <c r="E51" s="56">
-        <v>2.8E-3</v>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="F51" s="8">
         <f>MATCH($D51,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -35466,7 +35466,7 @@
         <v>49</v>
       </c>
       <c r="E52" s="56">
-        <v>-9.7000000000000003E-3</v>
+        <v>-9.4999999999999998E-3</v>
       </c>
       <c r="F52" s="8">
         <f>MATCH($D52,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -35580,7 +35580,7 @@
         <v>50</v>
       </c>
       <c r="E53" s="57">
-        <v>-4.1399999999999999E-2</v>
+        <v>-4.2500000000000003E-2</v>
       </c>
       <c r="F53" s="9">
         <f>MATCH($D53,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -38718,7 +38718,7 @@
         <v>8</v>
       </c>
       <c r="E99" s="56">
-        <v>0.81299999999999994</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="F99" s="8">
         <f>MATCH($D99,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -38834,7 +38834,7 @@
         <v>18</v>
       </c>
       <c r="E100" s="56">
-        <v>-0.70179999999999998</v>
+        <v>-0.71730000000000005</v>
       </c>
       <c r="F100" s="8">
         <f>MATCH($D100,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -38950,7 +38950,7 @@
         <v>9</v>
       </c>
       <c r="E101" s="56">
-        <v>0.26119999999999999</v>
+        <v>0.59470000000000001</v>
       </c>
       <c r="F101" s="8">
         <f>MATCH($D101,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -39064,7 +39064,7 @@
         <v>79</v>
       </c>
       <c r="E102" s="56">
-        <v>0.39179999999999998</v>
+        <v>-0.45679999999999998</v>
       </c>
       <c r="F102" s="8">
         <f>MATCH($D102,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -39180,7 +39180,7 @@
         <v>17</v>
       </c>
       <c r="E103" s="56">
-        <v>0.21890000000000001</v>
+        <v>0.1794</v>
       </c>
       <c r="F103" s="8">
         <f>MATCH($D103,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -39296,7 +39296,7 @@
         <v>16</v>
       </c>
       <c r="E104" s="56">
-        <v>-0.3866</v>
+        <v>-0.7228</v>
       </c>
       <c r="F104" s="8">
         <f>MATCH($D104,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -39410,7 +39410,7 @@
         <v>10</v>
       </c>
       <c r="E105" s="56">
-        <v>7.1000000000000004E-3</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="F105" s="8">
         <f>MATCH($D105,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -39524,7 +39524,7 @@
         <v>32</v>
       </c>
       <c r="E106" s="56">
-        <v>1E-4</v>
+        <v>1.04E-2</v>
       </c>
       <c r="F106" s="8">
         <f>MATCH($D106,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -39638,7 +39638,7 @@
         <v>89</v>
       </c>
       <c r="E107" s="56">
-        <v>-5.9999999999999995E-4</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F107" s="8">
         <f>MATCH($D107,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -39752,7 +39752,7 @@
         <v>85</v>
       </c>
       <c r="E108" s="56">
-        <v>-4.2099999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F108" s="8">
         <f>MATCH($D108,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -39866,7 +39866,7 @@
         <v>90</v>
       </c>
       <c r="E109" s="56">
-        <v>2.8E-3</v>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="F109" s="8">
         <f>MATCH($D109,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -39980,7 +39980,7 @@
         <v>49</v>
       </c>
       <c r="E110" s="56">
-        <v>-9.7000000000000003E-3</v>
+        <v>-9.4999999999999998E-3</v>
       </c>
       <c r="F110" s="8">
         <f>MATCH($D110,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
@@ -40094,7 +40094,7 @@
         <v>50</v>
       </c>
       <c r="E111" s="57">
-        <v>-4.1399999999999999E-2</v>
+        <v>-4.2500000000000003E-2</v>
       </c>
       <c r="F111" s="9">
         <f>MATCH($D111,FAC_TOTALS_APTA!$A$2:$BN$2,)</f>
